--- a/example_output/csv_data/Validation_swell_hindcast_vm_vise.xlsx
+++ b/example_output/csv_data/Validation_swell_hindcast_vm_vise.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,13 +414,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20367704.55114952</v>
+        <v>41825257.31034596</v>
       </c>
       <c r="C2">
-        <v>10136034.16702726</v>
+        <v>20491649.08704812</v>
       </c>
       <c r="D2">
-        <v>211</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24865501.48643317</v>
+        <v>50221442.396094</v>
       </c>
       <c r="C3">
-        <v>11972214.44229297</v>
+        <v>24640845.58182719</v>
       </c>
       <c r="D3">
-        <v>475</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +442,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29550502.65636591</v>
+        <v>57167902.17948352</v>
       </c>
       <c r="C4">
-        <v>14418574.81558229</v>
+        <v>27763034.58965733</v>
       </c>
       <c r="D4">
-        <v>892</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +456,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32331912.26447261</v>
+        <v>62854674.61007686</v>
       </c>
       <c r="C5">
-        <v>15767159.17839674</v>
+        <v>30416646.74778156</v>
       </c>
       <c r="D5">
-        <v>1058</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>36577390.88383096</v>
+        <v>69217081.88134193</v>
       </c>
       <c r="C6">
-        <v>17877537.19201542</v>
+        <v>33432157.23141976</v>
       </c>
       <c r="D6">
-        <v>1278</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +484,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>38102458.68562917</v>
+        <v>75418503.5313701</v>
       </c>
       <c r="C7">
-        <v>18789628.81115954</v>
+        <v>36200312.95076328</v>
       </c>
       <c r="D7">
-        <v>1370</v>
+        <v>24716</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>40235116.28778103</v>
+        <v>80199449.91314998</v>
       </c>
       <c r="C8">
-        <v>19610675.02010899</v>
+        <v>38274732.05753982</v>
       </c>
       <c r="D8">
-        <v>1516</v>
+        <v>27307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>43788175.06489162</v>
+        <v>86662070.62892246</v>
       </c>
       <c r="C9">
-        <v>21163349.93151331</v>
+        <v>41428746.89733379</v>
       </c>
       <c r="D9">
-        <v>1658</v>
+        <v>29729</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>45272458.13535876</v>
+        <v>92154682.41017383</v>
       </c>
       <c r="C10">
-        <v>21812968.10821487</v>
+        <v>43957253.70092916</v>
       </c>
       <c r="D10">
-        <v>1686</v>
+        <v>30546</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +540,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>47735828.12754509</v>
+        <v>98298981.57920997</v>
       </c>
       <c r="C11">
-        <v>23104573.95779653</v>
+        <v>46649104.15877838</v>
       </c>
       <c r="D11">
-        <v>1565</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +554,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>51462476.75904887</v>
+        <v>102734805.3788006</v>
       </c>
       <c r="C12">
-        <v>25185206.59744392</v>
+        <v>49063181.16417607</v>
       </c>
       <c r="D12">
-        <v>1566</v>
+        <v>28659</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>51604822.25007171</v>
+        <v>105957416.5232802</v>
       </c>
       <c r="C13">
-        <v>25378186.07096366</v>
+        <v>51122258.81039377</v>
       </c>
       <c r="D13">
-        <v>1424</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +582,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>50435804.54333406</v>
+        <v>105435776.3147873</v>
       </c>
       <c r="C14">
-        <v>24838960.33728093</v>
+        <v>51854176.14746311</v>
       </c>
       <c r="D14">
-        <v>1252</v>
+        <v>23060</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +596,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>52368832.66880038</v>
+        <v>101799280.2904309</v>
       </c>
       <c r="C15">
-        <v>26601049.55887926</v>
+        <v>51348032.63365294</v>
       </c>
       <c r="D15">
-        <v>1202</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +610,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>48345239.22906663</v>
+        <v>98087262.83605103</v>
       </c>
       <c r="C16">
-        <v>25381972.35246913</v>
+        <v>50593356.07334784</v>
       </c>
       <c r="D16">
-        <v>893</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>45974080.99542905</v>
+        <v>92493042.86811034</v>
       </c>
       <c r="C17">
-        <v>24752691.82070929</v>
+        <v>48933351.47467244</v>
       </c>
       <c r="D17">
-        <v>800</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +638,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>42129647.08004328</v>
+        <v>85167294.18078919</v>
       </c>
       <c r="C18">
-        <v>22894850.32044422</v>
+        <v>45712400.05550333</v>
       </c>
       <c r="D18">
-        <v>675</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +652,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>39284648.15540074</v>
+        <v>78029522.57516403</v>
       </c>
       <c r="C19">
-        <v>21674162.35520366</v>
+        <v>42393564.07945619</v>
       </c>
       <c r="D19">
-        <v>580</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +666,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>35703920.66525685</v>
+        <v>72126633.48371385</v>
       </c>
       <c r="C20">
-        <v>19525325.66275901</v>
+        <v>39217420.41015815</v>
       </c>
       <c r="D20">
-        <v>546</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +680,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>32645852.79040016</v>
+        <v>65329498.73721306</v>
       </c>
       <c r="C21">
-        <v>17613140.09003459</v>
+        <v>35766262.01354902</v>
       </c>
       <c r="D21">
-        <v>425</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +694,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>26846541.08979093</v>
+        <v>58549683.16286211</v>
       </c>
       <c r="C22">
-        <v>14984122.66500622</v>
+        <v>32384545.23365699</v>
       </c>
       <c r="D22">
-        <v>276</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +708,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23826747.85019521</v>
+        <v>52617625.54069395</v>
       </c>
       <c r="C23">
-        <v>13228098.56566314</v>
+        <v>29185072.591965</v>
       </c>
       <c r="D23">
-        <v>184</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +722,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>23051885.75755242</v>
+        <v>48177561.50041606</v>
       </c>
       <c r="C24">
-        <v>12729853.83303246</v>
+        <v>26974308.54195945</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +736,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>18848845.47317503</v>
+        <v>41144498.62052592</v>
       </c>
       <c r="C25">
-        <v>10916608.98104968</v>
+        <v>23359758.55872902</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,13 +750,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>18436057.33465819</v>
+        <v>37553293.21425825</v>
       </c>
       <c r="C26">
-        <v>10606425.64822821</v>
+        <v>21601234.35053647</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,13 +764,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>17339717.44558976</v>
+        <v>32777440.55944127</v>
       </c>
       <c r="C27">
-        <v>9546808.638016971</v>
+        <v>18967849.39070501</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,13 +778,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>12388269.98859886</v>
+        <v>29473000.8537634</v>
       </c>
       <c r="C28">
-        <v>7259845.629147307</v>
+        <v>17108663.49125009</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,13 +792,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11970609.11665597</v>
+        <v>25373703.26406952</v>
       </c>
       <c r="C29">
-        <v>6962517.317494355</v>
+        <v>15026410.89162435</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,13 +806,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7662433.692184121</v>
+        <v>23129172.44939602</v>
       </c>
       <c r="C30">
-        <v>5067536.07549033</v>
+        <v>13553064.89915755</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5045521.930157917</v>
+        <v>19575901.8565859</v>
       </c>
       <c r="C31">
-        <v>3367146.785817199</v>
+        <v>11341981.88809827</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,13 +834,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>19739558.80862852</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>11305381.1098399</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,12 +848,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3697074.952046579</v>
+        <v>14391027.97076443</v>
       </c>
       <c r="C33">
-        <v>2437211.178419684</v>
+        <v>8719793.44021064</v>
       </c>
       <c r="D33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>15617122.62827134</v>
+      </c>
+      <c r="C34">
+        <v>8986384.316489972</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>12923185.75239554</v>
+      </c>
+      <c r="C35">
+        <v>7672780.593702063</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9115133.579334984</v>
+      </c>
+      <c r="C36">
+        <v>5418041.458188626</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9106604.345949147</v>
+      </c>
+      <c r="C37">
+        <v>5623802.724041123</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5759950.905682508</v>
+      </c>
+      <c r="C38">
+        <v>3330765.895454634</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2573906.288361959</v>
+      </c>
+      <c r="C39">
+        <v>1727938.313823337</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6280266.521827239</v>
+      </c>
+      <c r="C40">
+        <v>2912994.254133536</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
     </row>
@@ -864,7 +962,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -886,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4910216.240872061</v>
+        <v>18483398.23612455</v>
       </c>
       <c r="C2">
-        <v>2147846.320121768</v>
+        <v>8164957.78674535</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -900,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7459249.249755884</v>
+        <v>21855510.37039536</v>
       </c>
       <c r="C3">
-        <v>3164265.593048519</v>
+        <v>9451124.624252781</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -914,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12102159.33239898</v>
+        <v>26701849.83242714</v>
       </c>
       <c r="C4">
-        <v>5128969.081627719</v>
+        <v>11864426.1030292</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -928,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14531211.32954346</v>
+        <v>30259575.55378991</v>
       </c>
       <c r="C5">
-        <v>6262900.07782062</v>
+        <v>13252573.2912818</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -942,13 +1040,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18658497.42367562</v>
+        <v>34268216.46226103</v>
       </c>
       <c r="C6">
-        <v>7357197.916386073</v>
+        <v>14879051.98345447</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,13 +1054,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17019523.00964624</v>
+        <v>41121185.31931582</v>
       </c>
       <c r="C7">
-        <v>7042125.122546868</v>
+        <v>17931322.54742881</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -970,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21760596.97417236</v>
+        <v>42944320.65010524</v>
       </c>
       <c r="C8">
-        <v>9333493.389755096</v>
+        <v>18544318.64512084</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -984,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>21349967.01888401</v>
+        <v>47854958.45033977</v>
       </c>
       <c r="C9">
-        <v>9126407.397573877</v>
+        <v>21185636.3639381</v>
       </c>
       <c r="D9">
-        <v>197</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -998,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>24184386.22495767</v>
+        <v>51666585.31898958</v>
       </c>
       <c r="C10">
-        <v>10326850.069864</v>
+        <v>22493512.29652394</v>
       </c>
       <c r="D10">
-        <v>188</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1012,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25519855.36842587</v>
+        <v>57576598.89869183</v>
       </c>
       <c r="C11">
-        <v>11226772.1685155</v>
+        <v>25226853.7958515</v>
       </c>
       <c r="D11">
-        <v>183</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1026,13 +1124,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27369142.0060819</v>
+        <v>59055084.18794234</v>
       </c>
       <c r="C12">
-        <v>12249676.41274698</v>
+        <v>26452050.64429323</v>
       </c>
       <c r="D12">
-        <v>144</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1040,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>27255563.13874963</v>
+        <v>61120862.27600894</v>
       </c>
       <c r="C13">
-        <v>12205810.69058889</v>
+        <v>27828566.88127317</v>
       </c>
       <c r="D13">
-        <v>137</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1054,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>26204500.39239189</v>
+        <v>62028812.01053113</v>
       </c>
       <c r="C14">
-        <v>11989895.21506126</v>
+        <v>29005602.89456721</v>
       </c>
       <c r="D14">
-        <v>132</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1068,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28116160.74658909</v>
+        <v>58636963.98108561</v>
       </c>
       <c r="C15">
-        <v>13288421.18893323</v>
+        <v>27942786.51240069</v>
       </c>
       <c r="D15">
-        <v>143</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1082,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>25769833.20299843</v>
+        <v>56454602.5790568</v>
       </c>
       <c r="C16">
-        <v>12332840.26495989</v>
+        <v>27358955.43009237</v>
       </c>
       <c r="D16">
-        <v>108</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1096,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>23429925.63922836</v>
+        <v>53849218.01914196</v>
       </c>
       <c r="C17">
-        <v>11564085.67082342</v>
+        <v>26710752.40085873</v>
       </c>
       <c r="D17">
-        <v>78</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1110,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>23791398.68601368</v>
+        <v>50415358.72872465</v>
       </c>
       <c r="C18">
-        <v>11886138.67774491</v>
+        <v>25055858.19647761</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1124,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>24027681.86929967</v>
+        <v>47602506.4055736</v>
       </c>
       <c r="C19">
-        <v>12336228.24360091</v>
+        <v>23937091.24072658</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1138,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>24076485.73063935</v>
+        <v>45853698.31105988</v>
       </c>
       <c r="C20">
-        <v>12370894.01732611</v>
+        <v>23206157.74069512</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1152,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>24130033.92629043</v>
+        <v>42268090.95443678</v>
       </c>
       <c r="C21">
-        <v>12455389.26693847</v>
+        <v>21899207.82257296</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1166,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>17317370.12526433</v>
+        <v>37887255.35087901</v>
       </c>
       <c r="C22">
-        <v>8690410.958516927</v>
+        <v>19695353.67337269</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1180,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>17869184.60651109</v>
+        <v>36091214.72238052</v>
       </c>
       <c r="C23">
-        <v>9853875.588095028</v>
+        <v>19155160.97406593</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1194,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17709984.03072358</v>
+        <v>32161278.72737523</v>
       </c>
       <c r="C24">
-        <v>9676259.494434023</v>
+        <v>17151265.90798408</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1208,13 +1306,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>14505715.98471595</v>
+        <v>29708185.59752741</v>
       </c>
       <c r="C25">
-        <v>8002819.877092135</v>
+        <v>16029684.71580979</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1222,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12333594.90688191</v>
+        <v>26199338.03796395</v>
       </c>
       <c r="C26">
-        <v>6786558.150638168</v>
+        <v>14542211.52795429</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1236,13 +1334,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10127064.03015419</v>
+        <v>23215015.61129923</v>
       </c>
       <c r="C27">
-        <v>5787942.610117317</v>
+        <v>13062398.73073279</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1250,13 +1348,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9675295.599351222</v>
+        <v>19677777.83419108</v>
       </c>
       <c r="C28">
-        <v>5273573.588309433</v>
+        <v>11144867.37408732</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1264,13 +1362,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8015124.998217341</v>
+        <v>17071361.0548861</v>
       </c>
       <c r="C29">
-        <v>4376783.830993765</v>
+        <v>9701187.534836434</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1278,13 +1376,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17697892.61958643</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10029687.42968693</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1292,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>14107678.85168958</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>8194152.449491518</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1306,13 +1404,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>16416270.95147612</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9423414.639759099</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1320,12 +1418,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>12594956.70632499</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>7383142.057938101</v>
       </c>
       <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9410867.498274237</v>
+      </c>
+      <c r="C34">
+        <v>5881816.743218975</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10798006.72236525</v>
+      </c>
+      <c r="C35">
+        <v>6586649.670328447</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7810555.064338018</v>
+      </c>
+      <c r="C36">
+        <v>4989625.959734011</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -1336,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1358,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14447133.99948902</v>
+        <v>24871803.18729663</v>
       </c>
       <c r="C2">
-        <v>6555273.077923606</v>
+        <v>11359327.60581259</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1372,13 +1568,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10084539.45693441</v>
+        <v>26804612.56548877</v>
       </c>
       <c r="C3">
-        <v>4508146.259530965</v>
+        <v>12223668.58607118</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1386,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15927375.00817859</v>
+        <v>30943988.69740639</v>
       </c>
       <c r="C4">
-        <v>7148517.748482209</v>
+        <v>13841655.13495168</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1400,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14140038.96583809</v>
+        <v>33594759.36447311</v>
       </c>
       <c r="C5">
-        <v>6130923.793065441</v>
+        <v>15048232.97886435</v>
       </c>
       <c r="D5">
-        <v>78</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1414,13 +1610,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18817256.36549125</v>
+        <v>37742556.92816172</v>
       </c>
       <c r="C6">
-        <v>8852571.415500049</v>
+        <v>16899434.55949742</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1428,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>21929033.79674884</v>
+        <v>41534164.06758638</v>
       </c>
       <c r="C7">
-        <v>9664980.268063076</v>
+        <v>18515221.89911751</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1442,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21096949.46878617</v>
+        <v>45436395.03008538</v>
       </c>
       <c r="C8">
-        <v>9003841.251707422</v>
+        <v>20011880.73129836</v>
       </c>
       <c r="D8">
-        <v>119</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1456,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24142421.39961937</v>
+        <v>50214115.63878694</v>
       </c>
       <c r="C9">
-        <v>10515722.34679676</v>
+        <v>22139780.42712981</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1470,13 +1666,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>26042201.50853578</v>
+        <v>55726070.8332742</v>
       </c>
       <c r="C10">
-        <v>11744427.39044517</v>
+        <v>24769751.928036</v>
       </c>
       <c r="D10">
-        <v>171</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1484,13 +1680,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>26805328.24864639</v>
+        <v>59867149.87015964</v>
       </c>
       <c r="C11">
-        <v>11947576.51851103</v>
+        <v>26485087.1047108</v>
       </c>
       <c r="D11">
-        <v>174</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1498,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30652126.88038392</v>
+        <v>63153289.20383953</v>
       </c>
       <c r="C12">
-        <v>14029119.90089702</v>
+        <v>28593983.29957544</v>
       </c>
       <c r="D12">
-        <v>186</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1512,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>31745855.53546107</v>
+        <v>65462149.45773727</v>
       </c>
       <c r="C13">
-        <v>14504165.47084274</v>
+        <v>29958676.99054713</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1526,13 +1722,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32961251.09568384</v>
+        <v>65503016.09271844</v>
       </c>
       <c r="C14">
-        <v>15504960.48294787</v>
+        <v>30821034.7683034</v>
       </c>
       <c r="D14">
-        <v>164</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1540,13 +1736,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29806446.78893697</v>
+        <v>61909996.50571673</v>
       </c>
       <c r="C15">
-        <v>14389357.96744784</v>
+        <v>29946042.10970124</v>
       </c>
       <c r="D15">
-        <v>128</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1554,13 +1750,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24991827.83129673</v>
+        <v>59638203.65745444</v>
       </c>
       <c r="C16">
-        <v>12330301.99735311</v>
+        <v>29432398.70535466</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1568,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25789931.34566747</v>
+        <v>56413038.85425012</v>
       </c>
       <c r="C17">
-        <v>13399801.70377992</v>
+        <v>28499002.81193228</v>
       </c>
       <c r="D17">
-        <v>111</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1582,13 +1778,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>23626374.24218173</v>
+        <v>52411652.74687018</v>
       </c>
       <c r="C18">
-        <v>12359821.98303585</v>
+        <v>26517257.18316407</v>
       </c>
       <c r="D18">
-        <v>88</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1596,13 +1792,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>22606414.10067843</v>
+        <v>47755693.87383334</v>
       </c>
       <c r="C19">
-        <v>11706836.36461878</v>
+        <v>24296647.98883399</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1610,13 +1806,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>20670644.95880193</v>
+        <v>45231668.27449469</v>
       </c>
       <c r="C20">
-        <v>11246004.12084404</v>
+        <v>23547360.51917196</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1624,13 +1820,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20272831.48371525</v>
+        <v>42320589.48873116</v>
       </c>
       <c r="C21">
-        <v>10874623.77190009</v>
+        <v>22337903.7785157</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1638,13 +1834,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16772038.49561261</v>
+        <v>38043496.42000351</v>
       </c>
       <c r="C22">
-        <v>9204681.670722425</v>
+        <v>20265184.36192631</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1652,13 +1848,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14762521.86869634</v>
+        <v>35358807.39639544</v>
       </c>
       <c r="C23">
-        <v>7980268.760108596</v>
+        <v>18956275.21304543</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1666,13 +1862,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>15695475.63055857</v>
+        <v>32941366.61072334</v>
       </c>
       <c r="C24">
-        <v>8304749.546951898</v>
+        <v>17961688.76752202</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1680,13 +1876,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12182683.35191613</v>
+        <v>27607077.50416941</v>
       </c>
       <c r="C25">
-        <v>6752735.807407517</v>
+        <v>15175651.76447023</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1694,13 +1890,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11474725.32503255</v>
+        <v>25037042.94202743</v>
       </c>
       <c r="C26">
-        <v>6368124.817585593</v>
+        <v>13913207.06482736</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1708,13 +1904,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5240141.663467503</v>
+        <v>21487116.75765824</v>
       </c>
       <c r="C27">
-        <v>3219059.11102967</v>
+        <v>12277551.67159461</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1722,13 +1918,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6656057.628301035</v>
+        <v>21013102.80927413</v>
       </c>
       <c r="C28">
-        <v>3476111.533379877</v>
+        <v>11867650.08626248</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1736,13 +1932,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4214160.010674743</v>
+        <v>15904100.30532012</v>
       </c>
       <c r="C29">
-        <v>2766882.467280787</v>
+        <v>9284666.787583662</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1750,13 +1946,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3966873.695155972</v>
+        <v>15731074.18500645</v>
       </c>
       <c r="C30">
-        <v>2635399.378512217</v>
+        <v>9383073.86201521</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1764,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>14915046.77375638</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>8218801.107486664</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1778,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>13311566.15830665</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7580901.601261597</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1792,12 +1988,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>7240700.03472865</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4571097.377055068</v>
       </c>
       <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6788578.297904111</v>
+      </c>
+      <c r="C34">
+        <v>4528262.506116692</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8096252.183798681</v>
+      </c>
+      <c r="C35">
+        <v>5050111.339534408</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6440131.036819005</v>
+      </c>
+      <c r="C37">
+        <v>4192260.762045734</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2573906.288361959</v>
+      </c>
+      <c r="C39">
+        <v>1727938.313823337</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -1808,7 +2102,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11850328.15680479</v>
+        <v>26844629.62491957</v>
       </c>
       <c r="C2">
-        <v>5391165.539353777</v>
+        <v>13146580.9164239</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1844,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12219084.53569365</v>
+        <v>30206364.37605933</v>
       </c>
       <c r="C3">
-        <v>5669537.215221514</v>
+        <v>14464343.19561685</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1858,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15947650.70821644</v>
+        <v>36024109.11498578</v>
       </c>
       <c r="C4">
-        <v>7639013.834097835</v>
+        <v>17447262.68406532</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1872,13 +2166,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>21853323.03702761</v>
+        <v>39974123.43889699</v>
       </c>
       <c r="C5">
-        <v>10039467.31063423</v>
+        <v>19036765.30933136</v>
       </c>
       <c r="D5">
-        <v>147</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1886,13 +2180,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22565942.13848222</v>
+        <v>44610130.43736016</v>
       </c>
       <c r="C6">
-        <v>10799343.88635671</v>
+        <v>21352620.16252166</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1900,13 +2194,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24100015.43077296</v>
+        <v>48691511.35622679</v>
       </c>
       <c r="C7">
-        <v>11172247.84522476</v>
+        <v>22948341.71027276</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1914,13 +2208,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27903382.44396165</v>
+        <v>53345050.77861033</v>
       </c>
       <c r="C8">
-        <v>13275080.55290354</v>
+        <v>25172195.52718243</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1928,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>29336976.60695411</v>
+        <v>57621349.38323224</v>
       </c>
       <c r="C9">
-        <v>14057107.35601083</v>
+        <v>27220916.74109136</v>
       </c>
       <c r="D9">
-        <v>234</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1942,13 +2236,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>30683197.14198269</v>
+        <v>61530636.87915881</v>
       </c>
       <c r="C10">
-        <v>14855489.47362753</v>
+        <v>29056679.00632669</v>
       </c>
       <c r="D10">
-        <v>247</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1956,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>31438084.07041389</v>
+        <v>66217952.32616889</v>
       </c>
       <c r="C11">
-        <v>14885704.02781817</v>
+        <v>31037703.62243368</v>
       </c>
       <c r="D11">
-        <v>192</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1970,13 +2264,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>35512782.05360945</v>
+        <v>70643571.86958307</v>
       </c>
       <c r="C12">
-        <v>17572416.22762369</v>
+        <v>33423117.24363725</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1984,13 +2278,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>36887173.63254181</v>
+        <v>73626533.43243605</v>
       </c>
       <c r="C13">
-        <v>17928060.07050879</v>
+        <v>35143410.45754258</v>
       </c>
       <c r="D13">
-        <v>284</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1998,13 +2292,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>36125224.96145826</v>
+        <v>72960004.76205528</v>
       </c>
       <c r="C14">
-        <v>17433142.53531478</v>
+        <v>35569191.11282896</v>
       </c>
       <c r="D14">
-        <v>213</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2012,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>36531351.61749361</v>
+        <v>70733549.2713262</v>
       </c>
       <c r="C15">
-        <v>18219809.76112397</v>
+        <v>35287183.50835548</v>
       </c>
       <c r="D15">
-        <v>188</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2026,13 +2320,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>34836803.08466296</v>
+        <v>69364080.90621783</v>
       </c>
       <c r="C16">
-        <v>17913917.69661693</v>
+        <v>35538955.06550238</v>
       </c>
       <c r="D16">
-        <v>177</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2040,13 +2334,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>29801095.21676855</v>
+        <v>64713350.70883305</v>
       </c>
       <c r="C17">
-        <v>15503018.14948124</v>
+        <v>33944104.98051163</v>
       </c>
       <c r="D17">
-        <v>162</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2054,13 +2348,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>29145606.38940812</v>
+        <v>60086795.80681232</v>
       </c>
       <c r="C18">
-        <v>15613636.23546178</v>
+        <v>32110655.93208468</v>
       </c>
       <c r="D18">
-        <v>134</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2068,13 +2362,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>26990562.87306866</v>
+        <v>54834891.04124704</v>
       </c>
       <c r="C19">
-        <v>14653399.78140389</v>
+        <v>29667560.34435621</v>
       </c>
       <c r="D19">
-        <v>105</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2082,13 +2376,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>23309185.14004843</v>
+        <v>49757669.82815583</v>
       </c>
       <c r="C20">
-        <v>12715702.93189179</v>
+        <v>26915385.06229831</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2096,13 +2390,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20277845.57969425</v>
+        <v>45218423.70557388</v>
       </c>
       <c r="C21">
-        <v>11107750.0300199</v>
+        <v>24766901.8360474</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2110,13 +2404,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>19367505.84080058</v>
+        <v>40706083.86152458</v>
       </c>
       <c r="C22">
-        <v>10617352.7163674</v>
+        <v>22849667.46455941</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2124,13 +2418,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>15085721.49545845</v>
+        <v>35435067.27187575</v>
       </c>
       <c r="C23">
-        <v>8541088.034991626</v>
+        <v>19916197.1611743</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2138,13 +2432,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>12518552.55946641</v>
+        <v>31501747.59658961</v>
       </c>
       <c r="C24">
-        <v>7227335.865976682</v>
+        <v>17934001.00627689</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2152,13 +2446,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10156891.32549248</v>
+        <v>26320739.57395376</v>
       </c>
       <c r="C25">
-        <v>5747055.698800225</v>
+        <v>15308736.64040907</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2166,13 +2460,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9700378.614281489</v>
+        <v>25184749.89795857</v>
       </c>
       <c r="C26">
-        <v>5894339.560409795</v>
+        <v>14574918.99341006</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2180,13 +2474,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8058642.983324673</v>
+        <v>20054388.33377061</v>
       </c>
       <c r="C27">
-        <v>5109677.49839548</v>
+        <v>11810132.07802396</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2194,13 +2488,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7039607.949720887</v>
+        <v>17881674.96777667</v>
       </c>
       <c r="C28">
-        <v>4510290.983118342</v>
+        <v>10887634.66013329</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2208,13 +2502,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5589208.724996278</v>
+        <v>14255673.76984399</v>
       </c>
       <c r="C29">
-        <v>3242762.895432622</v>
+        <v>8882323.369725132</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2222,13 +2516,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6654838.517676024</v>
+        <v>12836893.59565316</v>
       </c>
       <c r="C30">
-        <v>4298082.42017135</v>
+        <v>7998193.456188599</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2236,13 +2530,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5045521.930157917</v>
+        <v>12253320.76039281</v>
       </c>
       <c r="C31">
-        <v>3367146.785817199</v>
+        <v>7061637.640053442</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2250,13 +2544,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>9917678.218188714</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5924425.151877128</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2264,13 +2558,111 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3697074.952046579</v>
+        <v>9355795.780789232</v>
       </c>
       <c r="C33">
-        <v>2437211.178419684</v>
+        <v>5741035.229848536</v>
       </c>
       <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7174332.435689866</v>
+      </c>
+      <c r="C34">
+        <v>4451835.687917233</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6006963.898937205</v>
+      </c>
+      <c r="C35">
+        <v>3301793.514292965</v>
+      </c>
+      <c r="D35">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3497310.006052758</v>
+      </c>
+      <c r="C37">
+        <v>2296705.599215962</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2302,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16213375.92859531</v>
+        <v>34274553.00134192</v>
       </c>
       <c r="C2">
-        <v>8861710.617525846</v>
+        <v>17519723.01941553</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2316,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21597068.84626673</v>
+        <v>42623115.34039254</v>
       </c>
       <c r="C3">
-        <v>10899607.27607217</v>
+        <v>21759623.57083295</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2330,13 +2722,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26043841.870235</v>
+        <v>47875245.83204041</v>
       </c>
       <c r="C4">
-        <v>13119633.93734113</v>
+        <v>24109077.05512612</v>
       </c>
       <c r="D4">
-        <v>280</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2344,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27657326.33809388</v>
+        <v>52063965.76076478</v>
       </c>
       <c r="C5">
-        <v>14164554.83137364</v>
+        <v>26197377.88293491</v>
       </c>
       <c r="D5">
-        <v>275</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2358,13 +2750,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31534037.2986181</v>
+        <v>56783756.0469</v>
       </c>
       <c r="C6">
-        <v>16026784.71615107</v>
+        <v>28578549.99107275</v>
       </c>
       <c r="D6">
-        <v>349</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2372,13 +2764,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32283422.78955964</v>
+        <v>60767465.03532439</v>
       </c>
       <c r="C7">
-        <v>16773718.43197674</v>
+        <v>30625722.91297237</v>
       </c>
       <c r="D7">
-        <v>386</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2386,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>33399608.82510566</v>
+        <v>64656688.72061099</v>
       </c>
       <c r="C8">
-        <v>17096040.38857689</v>
+        <v>32403408.90915035</v>
       </c>
       <c r="D8">
-        <v>415</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2400,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>35739720.58335113</v>
+        <v>68815015.85716639</v>
       </c>
       <c r="C9">
-        <v>18270913.95643827</v>
+        <v>34685406.86457592</v>
       </c>
       <c r="D9">
-        <v>457</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2414,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>35980364.68780063</v>
+        <v>72105862.21206757</v>
       </c>
       <c r="C10">
-        <v>18230899.88992705</v>
+        <v>36498270.04620855</v>
       </c>
       <c r="D10">
-        <v>382</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2428,13 +2820,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>39361370.94030359</v>
+        <v>75792389.64950158</v>
       </c>
       <c r="C11">
-        <v>20110672.06033981</v>
+        <v>38285491.99724566</v>
       </c>
       <c r="D11">
-        <v>378</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2442,13 +2834,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>41604026.64251038</v>
+        <v>79033126.34381878</v>
       </c>
       <c r="C12">
-        <v>21299301.28219329</v>
+        <v>39929893.28909606</v>
       </c>
       <c r="D12">
-        <v>409</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2456,13 +2848,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>41076317.25653078</v>
+        <v>81201447.46538782</v>
       </c>
       <c r="C13">
-        <v>21379951.72923469</v>
+        <v>41364101.24053929</v>
       </c>
       <c r="D13">
-        <v>331</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2470,13 +2862,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>38806884.51774488</v>
+        <v>80948141.40304533</v>
       </c>
       <c r="C14">
-        <v>20361864.12249619</v>
+        <v>41866288.52459733</v>
       </c>
       <c r="D14">
-        <v>270</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2484,13 +2876,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>42704567.67885631</v>
+        <v>78898503.45916109</v>
       </c>
       <c r="C15">
-        <v>22789866.83444334</v>
+        <v>41729865.49996901</v>
       </c>
       <c r="D15">
-        <v>308</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2498,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>39168796.41128135</v>
+        <v>75793080.54049632</v>
       </c>
       <c r="C16">
-        <v>21610506.25533422</v>
+        <v>41009903.91148745</v>
       </c>
       <c r="D16">
-        <v>232</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2512,13 +2904,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>38498147.98085012</v>
+        <v>71730437.53186569</v>
       </c>
       <c r="C17">
-        <v>21721834.50493092</v>
+        <v>39955063.22534944</v>
       </c>
       <c r="D17">
-        <v>209</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2526,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>32659198.43592605</v>
+        <v>64310264.45505408</v>
       </c>
       <c r="C18">
-        <v>18744953.47372635</v>
+        <v>36764766.04314922</v>
       </c>
       <c r="D18">
-        <v>149</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2540,13 +2932,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>28240864.73349196</v>
+        <v>57868341.63818037</v>
       </c>
       <c r="C19">
-        <v>16771296.42416455</v>
+        <v>33730088.35671587</v>
       </c>
       <c r="D19">
-        <v>111</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2554,13 +2946,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>25268940.00424523</v>
+        <v>51889400.68283874</v>
       </c>
       <c r="C20">
-        <v>14758343.19833492</v>
+        <v>30468610.47745228</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2568,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>19147308.49667074</v>
+        <v>44065405.6545122</v>
       </c>
       <c r="C21">
-        <v>11373318.48025009</v>
+        <v>25936097.12402031</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2582,13 +2974,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15754791.95551798</v>
+        <v>39928252.34703726</v>
       </c>
       <c r="C22">
-        <v>9677138.547753602</v>
+        <v>23491739.09499314</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2596,13 +2988,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14093719.83715319</v>
+        <v>34096426.30817088</v>
       </c>
       <c r="C23">
-        <v>8512278.179693468</v>
+        <v>20470134.47178407</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2610,13 +3002,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10750121.1156351</v>
+        <v>30548088.15198227</v>
       </c>
       <c r="C24">
-        <v>6558963.990582508</v>
+        <v>18740461.85778102</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2624,13 +3016,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12189176.92463245</v>
+        <v>25900150.82677133</v>
       </c>
       <c r="C25">
-        <v>7498785.265560453</v>
+        <v>16044298.25695533</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2638,13 +3030,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9703829.751315268</v>
+        <v>23625581.34626996</v>
       </c>
       <c r="C26">
-        <v>6215203.319188412</v>
+        <v>15050453.15380451</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2652,13 +3044,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9836685.552943686</v>
+        <v>19767519.27923532</v>
       </c>
       <c r="C27">
-        <v>6442925.0452772</v>
+        <v>12770778.44620965</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2666,13 +3058,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6970624.080120193</v>
+        <v>17305296.19297051</v>
       </c>
       <c r="C28">
-        <v>4792914.026042133</v>
+        <v>11316453.76580887</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2680,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5414370.231036217</v>
+        <v>15702957.99888798</v>
       </c>
       <c r="C29">
-        <v>3699746.660379319</v>
+        <v>10246213.9062815</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2694,13 +3086,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5014927.936043091</v>
+        <v>12341289.90152584</v>
       </c>
       <c r="C30">
-        <v>3426531.634483801</v>
+        <v>7809300.778651987</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2708,13 +3100,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>11692414.57775397</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7603596.715829289</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2722,13 +3114,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>9772107.313659683</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6365099.294315294</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2736,12 +3128,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>6518129.371478043</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4521911.062186906</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4623369.370556408</v>
+      </c>
+      <c r="C36">
+        <v>3211437.214449673</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +3242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11478323.3701463</v>
+        <v>26962790.16526784</v>
       </c>
       <c r="C2">
-        <v>5418021.383511997</v>
+        <v>12733089.44720068</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2788,13 +3278,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15854725.06924135</v>
+        <v>32986741.49292515</v>
       </c>
       <c r="C3">
-        <v>7124664.845554717</v>
+        <v>15652612.43977304</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2802,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16777206.34770084</v>
+        <v>36954324.94962143</v>
       </c>
       <c r="C4">
-        <v>7898854.668026278</v>
+        <v>17279593.03648116</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2816,13 +3306,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18125174.79956835</v>
+        <v>41349229.58469281</v>
       </c>
       <c r="C5">
-        <v>8554951.81619142</v>
+        <v>19537581.53355328</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2830,13 +3320,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>20617650.0696243</v>
+        <v>45133118.86259653</v>
       </c>
       <c r="C6">
-        <v>9759491.869885707</v>
+        <v>21283998.05470867</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2844,13 +3334,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>21442173.68652837</v>
+        <v>48484370.2729949</v>
       </c>
       <c r="C7">
-        <v>10459462.38468775</v>
+        <v>22812483.16155909</v>
       </c>
       <c r="D7">
-        <v>173</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2858,13 +3348,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21202707.36287294</v>
+        <v>49963307.49953655</v>
       </c>
       <c r="C8">
-        <v>10508113.84204219</v>
+        <v>23352897.48343377</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2872,13 +3362,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24622715.14995203</v>
+        <v>53199834.79232908</v>
       </c>
       <c r="C9">
-        <v>11762408.69502114</v>
+        <v>24999330.99513752</v>
       </c>
       <c r="D9">
-        <v>232</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2886,13 +3376,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25087511.7516281</v>
+        <v>55675362.71315559</v>
       </c>
       <c r="C10">
-        <v>11917559.85984003</v>
+        <v>26151648.99076932</v>
       </c>
       <c r="D10">
-        <v>218</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2900,13 +3390,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25238950.69056893</v>
+        <v>57655632.07146638</v>
       </c>
       <c r="C11">
-        <v>11900569.505958</v>
+        <v>27154686.35102767</v>
       </c>
       <c r="D11">
-        <v>194</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2914,13 +3404,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>26572720.5729522</v>
+        <v>59304280.81122782</v>
       </c>
       <c r="C12">
-        <v>12521821.57128413</v>
+        <v>27856247.37390754</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2928,13 +3418,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23953990.7003221</v>
+        <v>59966354.89726069</v>
       </c>
       <c r="C13">
-        <v>11460065.12145961</v>
+        <v>28601263.49744432</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2942,13 +3432,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>23569324.18342851</v>
+        <v>58262940.89077146</v>
       </c>
       <c r="C14">
-        <v>11268830.82537442</v>
+        <v>28279330.44687292</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2956,13 +3446,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>23519236.37290843</v>
+        <v>56859285.51177979</v>
       </c>
       <c r="C15">
-        <v>11338113.77139195</v>
+        <v>28440445.89397816</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2970,13 +3460,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>25704503.15112072</v>
+        <v>53203582.1527992</v>
       </c>
       <c r="C16">
-        <v>13138441.85757111</v>
+        <v>27207656.71638661</v>
       </c>
       <c r="D16">
-        <v>83</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2984,13 +3474,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25701585.59822463</v>
+        <v>48393870.10053648</v>
       </c>
       <c r="C17">
-        <v>13292777.05633787</v>
+        <v>25472597.74217735</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2998,13 +3488,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>24694942.16768463</v>
+        <v>45122034.56463365</v>
       </c>
       <c r="C18">
-        <v>13480970.57859477</v>
+        <v>24290953.11844849</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3012,13 +3502,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25591064.60197441</v>
+        <v>41623705.22232429</v>
       </c>
       <c r="C19">
-        <v>14420985.85054103</v>
+        <v>23180882.55014713</v>
       </c>
       <c r="D19">
-        <v>93</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3026,13 +3516,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>21175056.74804838</v>
+        <v>37406505.7866559</v>
       </c>
       <c r="C20">
-        <v>12104595.08930683</v>
+        <v>21069565.02436497</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3040,13 +3530,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>17777152.36442201</v>
+        <v>36468198.81322477</v>
       </c>
       <c r="C21">
-        <v>10799711.84992925</v>
+        <v>21197441.97916373</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3054,13 +3544,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16916785.13579476</v>
+        <v>31573677.66918365</v>
       </c>
       <c r="C22">
-        <v>10359302.31359027</v>
+        <v>18555031.1323624</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3068,13 +3558,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11419286.31612225</v>
+        <v>27568250.13349507</v>
       </c>
       <c r="C23">
-        <v>7153545.874736991</v>
+        <v>16194654.06451076</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3082,13 +3572,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>12836468.84281581</v>
+        <v>24925564.6453362</v>
       </c>
       <c r="C24">
-        <v>8166768.726398775</v>
+        <v>14940013.31992406</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3096,13 +3586,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11548857.24995415</v>
+        <v>20895726.86645229</v>
       </c>
       <c r="C25">
-        <v>7344048.107544648</v>
+        <v>13008217.6396857</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3110,13 +3600,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12669021.67624235</v>
+        <v>17664264.20244045</v>
       </c>
       <c r="C26">
-        <v>7524815.279477916</v>
+        <v>11098357.16972826</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3124,13 +3614,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10615177.75183285</v>
+        <v>17243452.2256612</v>
       </c>
       <c r="C27">
-        <v>6405155.377764266</v>
+        <v>10874225.71405072</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3138,13 +3628,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9279657.628904898</v>
+        <v>13591265.49269495</v>
       </c>
       <c r="C28">
-        <v>5457429.389604953</v>
+        <v>8899374.459410161</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3152,13 +3642,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>9243562.174423086</v>
+        <v>11518214.18305106</v>
       </c>
       <c r="C29">
-        <v>5646469.869561686</v>
+        <v>7468152.58373696</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3166,13 +3656,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4961055.784415728</v>
+        <v>8791976.179759026</v>
       </c>
       <c r="C30">
-        <v>3390178.881759645</v>
+        <v>6181713.926193525</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3180,13 +3670,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>7749581.007041811</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5249574.462083925</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3194,13 +3684,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>6182255.391230977</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4248040.755162994</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3208,12 +3698,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5178299.356810482</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3606784.067712612</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4311830.659560124</v>
+      </c>
+      <c r="C34">
+        <v>3013905.99181601</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4591396.467558054</v>
+      </c>
+      <c r="C35">
+        <v>3105006.866112689</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -3224,7 +3812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3246,13 +3834,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10908539.04921618</v>
+        <v>15434406.39725727</v>
       </c>
       <c r="C2">
-        <v>4974410.350504331</v>
+        <v>6961380.757064385</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3260,13 +3848,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13999781.26692645</v>
+        <v>19291810.92592776</v>
       </c>
       <c r="C3">
-        <v>6306169.409332819</v>
+        <v>8687509.775718315</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3274,13 +3862,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11983383.81947704</v>
+        <v>22076099.79647801</v>
       </c>
       <c r="C4">
-        <v>5417773.224216143</v>
+        <v>9971121.898959614</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3288,13 +3876,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15449712.66135992</v>
+        <v>24498096.73730477</v>
       </c>
       <c r="C5">
-        <v>6762170.481029793</v>
+        <v>11072370.61777095</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3302,13 +3890,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14914161.17175278</v>
+        <v>26351469.87075572</v>
       </c>
       <c r="C6">
-        <v>6685488.558113215</v>
+        <v>11826730.68960295</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3316,13 +3904,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14912795.48520575</v>
+        <v>27915495.10542792</v>
       </c>
       <c r="C7">
-        <v>6801091.547922362</v>
+        <v>12853589.14918465</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3330,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16516397.35901125</v>
+        <v>28740042.5698731</v>
       </c>
       <c r="C8">
-        <v>7313035.303347647</v>
+        <v>12892111.86211794</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3344,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17610060.18661944</v>
+        <v>29787643.76525297</v>
       </c>
       <c r="C9">
-        <v>7947142.158372404</v>
+        <v>13269992.98090842</v>
       </c>
       <c r="D9">
-        <v>113</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3358,13 +3946,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>18029178.4410832</v>
+        <v>32631389.35844929</v>
       </c>
       <c r="C10">
-        <v>8087277.666525266</v>
+        <v>14360210.28634094</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3372,13 +3960,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>19428038.01918373</v>
+        <v>36891143.9503661</v>
       </c>
       <c r="C11">
-        <v>8333940.225017377</v>
+        <v>16395838.56579638</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3386,13 +3974,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18469226.48035321</v>
+        <v>36539014.9038964</v>
       </c>
       <c r="C12">
-        <v>7892451.211466752</v>
+        <v>16024050.04092269</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3400,13 +3988,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20151317.53533709</v>
+        <v>36620912.59253126</v>
       </c>
       <c r="C13">
-        <v>8844158.023133852</v>
+        <v>16083410.97900531</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3414,13 +4002,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18550297.39086206</v>
+        <v>37082386.15166831</v>
       </c>
       <c r="C14">
-        <v>8105170.920541823</v>
+        <v>16670765.63572162</v>
       </c>
       <c r="D14">
-        <v>86</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3428,13 +4016,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>20042141.5138368</v>
+        <v>34093669.88414029</v>
       </c>
       <c r="C15">
-        <v>9019341.864337245</v>
+        <v>15557429.01463944</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3442,13 +4030,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18719605.88337559</v>
+        <v>31710932.22740895</v>
       </c>
       <c r="C16">
-        <v>8599614.161094051</v>
+        <v>14661289.18594143</v>
       </c>
       <c r="D16">
-        <v>73</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3456,13 +4044,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17666905.72951963</v>
+        <v>30901737.90651387</v>
       </c>
       <c r="C17">
-        <v>8359330.314410235</v>
+        <v>14586629.80538881</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3470,13 +4058,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18739222.68328519</v>
+        <v>31023286.05367872</v>
       </c>
       <c r="C18">
-        <v>9228868.005472617</v>
+        <v>15050783.37271038</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3484,13 +4072,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15543863.77867632</v>
+        <v>29129884.80251786</v>
       </c>
       <c r="C19">
-        <v>7669117.46855875</v>
+        <v>14181951.69539344</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3498,13 +4086,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14222622.049895</v>
+        <v>26958494.44137243</v>
       </c>
       <c r="C20">
-        <v>7073075.014712617</v>
+        <v>13364737.01676229</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3512,13 +4100,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14284728.58147982</v>
+        <v>26401406.0998135</v>
       </c>
       <c r="C21">
-        <v>7227426.84278544</v>
+        <v>13238267.17741439</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3526,13 +4114,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>13557614.92890893</v>
+        <v>20570640.38982755</v>
       </c>
       <c r="C22">
-        <v>7030356.7424561</v>
+        <v>10488636.5393131</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3540,13 +4128,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11785800.77158791</v>
+        <v>19788100.06725822</v>
       </c>
       <c r="C23">
-        <v>6051030.827192759</v>
+        <v>10245480.07489043</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3554,13 +4142,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>11134195.65001639</v>
+        <v>16374741.53095798</v>
       </c>
       <c r="C24">
-        <v>5914574.259138581</v>
+        <v>8548410.083664011</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3568,13 +4156,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9395653.867746932</v>
+        <v>12493351.64700562</v>
       </c>
       <c r="C25">
-        <v>5140830.31820235</v>
+        <v>6842109.414188342</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3582,13 +4170,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9650992.55202844</v>
+        <v>11232932.28905516</v>
       </c>
       <c r="C26">
-        <v>5407181.820218125</v>
+        <v>6142340.353493588</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3596,13 +4184,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8589236.085659748</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4668530.232693193</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3610,13 +4198,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>6123318.999431526</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3283432.241541217</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3686,6 +4274,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2483856.577999474</v>
+      </c>
+      <c r="C36">
+        <v>1810454.682657443</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -3696,7 +4382,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3718,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7907094.888800794</v>
+        <v>10011388.00689876</v>
       </c>
       <c r="C2">
-        <v>3166558.133006708</v>
+        <v>4218796.344102375</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3732,13 +4418,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7780409.141775902</v>
+        <v>11738353.85881456</v>
       </c>
       <c r="C3">
-        <v>3215458.064174822</v>
+        <v>5150928.381390946</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3746,13 +4432,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8594598.052956494</v>
+        <v>14077989.63027268</v>
       </c>
       <c r="C4">
-        <v>3640564.300353319</v>
+        <v>6234243.767992419</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3760,13 +4446,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9219679.309981534</v>
+        <v>15507626.72204975</v>
       </c>
       <c r="C5">
-        <v>4219518.911712306</v>
+        <v>7029294.640772809</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3774,13 +4460,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8447522.214490255</v>
+        <v>17839930.12547601</v>
       </c>
       <c r="C6">
-        <v>4031486.438145275</v>
+        <v>7900298.10383257</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3788,13 +4474,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7856712.799309193</v>
+        <v>19466970.1713412</v>
       </c>
       <c r="C7">
-        <v>3921378.1081859</v>
+        <v>8711702.776340341</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3802,13 +4488,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9183713.866413837</v>
+        <v>20461928.86831374</v>
       </c>
       <c r="C8">
-        <v>4260014.921123063</v>
+        <v>8953728.426232174</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3816,13 +4502,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10771354.63615694</v>
+        <v>22542596.02932168</v>
       </c>
       <c r="C9">
-        <v>4922666.691452769</v>
+        <v>9703516.774812847</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3830,13 +4516,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13217692.13839835</v>
+        <v>24690322.76943027</v>
       </c>
       <c r="C10">
-        <v>5534315.098882999</v>
+        <v>10184626.80978815</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3844,13 +4530,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16395976.37716475</v>
+        <v>27886762.41909845</v>
       </c>
       <c r="C11">
-        <v>6883177.570231551</v>
+        <v>11431379.0912989</v>
       </c>
       <c r="D11">
-        <v>91</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3858,13 +4544,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>17808820.44644074</v>
+        <v>29821683.48497196</v>
       </c>
       <c r="C12">
-        <v>7374725.468848718</v>
+        <v>12252098.5703429</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3872,13 +4558,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13454330.48649915</v>
+        <v>30062085.26349933</v>
       </c>
       <c r="C13">
-        <v>5570626.234621919</v>
+        <v>12584199.87795466</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3886,13 +4572,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18194815.22545023</v>
+        <v>30076478.03021908</v>
       </c>
       <c r="C14">
-        <v>7798335.872455849</v>
+        <v>12841517.70886174</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3900,13 +4586,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>18555683.15273005</v>
+        <v>28622135.17148662</v>
       </c>
       <c r="C15">
-        <v>8129216.722204032</v>
+        <v>12492899.44488147</v>
       </c>
       <c r="D15">
-        <v>107</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3914,13 +4600,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13658062.6888294</v>
+        <v>28780118.33716589</v>
       </c>
       <c r="C16">
-        <v>6212818.906033207</v>
+        <v>12797011.72248121</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3928,13 +4614,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15958748.11763864</v>
+        <v>27973907.81509497</v>
       </c>
       <c r="C17">
-        <v>7398327.55424888</v>
+        <v>12710447.14759673</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3942,13 +4628,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15133359.38898669</v>
+        <v>25557345.82104434</v>
       </c>
       <c r="C18">
-        <v>7102183.838760312</v>
+        <v>11932195.34143266</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3956,13 +4642,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12759468.55168357</v>
+        <v>24687644.39321717</v>
       </c>
       <c r="C19">
-        <v>6171622.547885026</v>
+        <v>11679471.70662495</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3970,13 +4656,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13280289.1860928</v>
+        <v>22935543.73374765</v>
       </c>
       <c r="C20">
-        <v>6384434.076769968</v>
+        <v>11096081.13180558</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3984,13 +4670,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11804090.04228866</v>
+        <v>20536193.04934008</v>
       </c>
       <c r="C21">
-        <v>5743741.227577198</v>
+        <v>10144689.79488936</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3998,13 +4684,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10454157.48245298</v>
+        <v>18381568.65834771</v>
       </c>
       <c r="C22">
-        <v>5364194.164397121</v>
+        <v>9330426.692631885</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4012,13 +4698,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7570476.783910931</v>
+        <v>16513391.96647106</v>
       </c>
       <c r="C23">
-        <v>3875101.598053311</v>
+        <v>8382141.866087548</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4026,13 +4712,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>12555130.1966427</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6516414.394230828</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4040,13 +4726,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10939902.32282203</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5871478.032278953</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4054,13 +4740,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6110766.337438708</v>
+        <v>8779608.533839792</v>
       </c>
       <c r="C26">
-        <v>3076581.641392235</v>
+        <v>4648205.710932925</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4068,13 +4754,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5646094.588260638</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3079943.685738185</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4082,13 +4768,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>5670591.439995624</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2901694.241840968</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4158,6 +4844,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -4168,7 +4952,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4190,13 +4974,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3280614.059449381</v>
+        <v>8188588.708321399</v>
       </c>
       <c r="C2">
-        <v>1544227.782845018</v>
+        <v>3584541.277904988</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4204,13 +4988,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7532834.516644365</v>
+        <v>13612108.55788996</v>
       </c>
       <c r="C3">
-        <v>3012963.352669677</v>
+        <v>5682799.170150879</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4218,13 +5002,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8221662.845482702</v>
+        <v>12117788.35131426</v>
       </c>
       <c r="C4">
-        <v>3480011.974562779</v>
+        <v>5240813.614341201</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4232,13 +5016,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7450399.526008059</v>
+        <v>16185732.86431383</v>
       </c>
       <c r="C5">
-        <v>3290196.087729587</v>
+        <v>6908290.406259395</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4246,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8385366.346180054</v>
+        <v>14771700.75009298</v>
       </c>
       <c r="C6">
-        <v>3658609.968553666</v>
+        <v>6527760.629387263</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4260,13 +5044,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9005523.812250961</v>
+        <v>16854532.81165058</v>
       </c>
       <c r="C7">
-        <v>3808997.076728208</v>
+        <v>7139151.958026968</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4274,13 +5058,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9811321.89116786</v>
+        <v>19463386.63112648</v>
       </c>
       <c r="C8">
-        <v>4061485.662216604</v>
+        <v>8169686.385852582</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4288,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10510675.26554261</v>
+        <v>21325490.8780476</v>
       </c>
       <c r="C9">
-        <v>4256588.15958402</v>
+        <v>8812967.167225786</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4302,13 +5086,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11719792.16900364</v>
+        <v>24937004.16609325</v>
       </c>
       <c r="C10">
-        <v>4835182.836765746</v>
+        <v>10187993.66013916</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4316,13 +5100,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14005179.1915744</v>
+        <v>27076258.92543012</v>
       </c>
       <c r="C11">
-        <v>5752844.801348723</v>
+        <v>10881864.78831703</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4330,13 +5114,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15232288.84635418</v>
+        <v>29433327.96935589</v>
       </c>
       <c r="C12">
-        <v>6074685.076154793</v>
+        <v>12032429.67537818</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4344,13 +5128,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15005751.97380998</v>
+        <v>29398755.82801998</v>
       </c>
       <c r="C13">
-        <v>6169010.756918374</v>
+        <v>12069943.44191539</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4358,13 +5142,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16350281.62395732</v>
+        <v>30385233.80954832</v>
       </c>
       <c r="C14">
-        <v>6810757.06197773</v>
+        <v>12778148.03598652</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4372,13 +5156,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16505065.81103945</v>
+        <v>29502336.81958141</v>
       </c>
       <c r="C15">
-        <v>6860263.010389424</v>
+        <v>12485387.14282762</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4386,13 +5170,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14812756.1114739</v>
+        <v>27571942.09648316</v>
       </c>
       <c r="C16">
-        <v>6407835.772137102</v>
+        <v>11948504.19134553</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4400,13 +5184,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>13708547.71788488</v>
+        <v>28345676.08468093</v>
       </c>
       <c r="C17">
-        <v>6191072.130677092</v>
+        <v>12537623.8384509</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4414,13 +5198,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11377992.00225755</v>
+        <v>26759189.89088054</v>
       </c>
       <c r="C18">
-        <v>5264068.735018214</v>
+        <v>12119423.13115166</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4428,13 +5212,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12434350.29279897</v>
+        <v>24238269.66105605</v>
       </c>
       <c r="C19">
-        <v>5633127.969245698</v>
+        <v>11043654.68851681</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4442,13 +5226,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14045332.73825614</v>
+        <v>22727010.96635066</v>
       </c>
       <c r="C20">
-        <v>6569243.223581322</v>
+        <v>10708196.33935977</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4456,13 +5240,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16605894.96404574</v>
+        <v>20886552.62038363</v>
       </c>
       <c r="C21">
-        <v>7828624.067526677</v>
+        <v>9937509.22196844</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4470,13 +5254,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7127064.617662047</v>
+        <v>19251767.90042552</v>
       </c>
       <c r="C22">
-        <v>3534338.037212767</v>
+        <v>9274890.197861928</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4484,13 +5268,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5792460.278468799</v>
+        <v>17108985.03248158</v>
       </c>
       <c r="C23">
-        <v>2895372.864816125</v>
+        <v>8408396.549120704</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4498,13 +5282,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7744551.235372902</v>
+        <v>17511387.02172071</v>
       </c>
       <c r="C24">
-        <v>3783165.141556957</v>
+        <v>8156396.952953879</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4512,13 +5296,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5381083.373120124</v>
+        <v>11134603.74632283</v>
       </c>
       <c r="C25">
-        <v>2636932.325916247</v>
+        <v>5595557.287624083</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4526,13 +5310,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>7320427.399404469</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3710902.568310471</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4540,13 +5324,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>12071979.77565831</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5648435.595546306</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4630,6 +5414,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -4640,7 +5522,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4662,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2716526.467005951</v>
+        <v>9674937.945931749</v>
       </c>
       <c r="C2">
-        <v>1425849.664404389</v>
+        <v>4110152.440696856</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4676,13 +5558,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6888559.804382405</v>
+        <v>15094683.05834883</v>
       </c>
       <c r="C3">
-        <v>2884064.936414623</v>
+        <v>5705673.06743701</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4690,13 +5572,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7584033.468723409</v>
+        <v>15260811.18773231</v>
       </c>
       <c r="C4">
-        <v>3468041.520365655</v>
+        <v>6752538.719776422</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4704,13 +5586,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7393914.13601702</v>
+        <v>12141587.10699612</v>
       </c>
       <c r="C5">
-        <v>3072552.584787318</v>
+        <v>5281315.469764591</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4718,13 +5600,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8158648.488186835</v>
+        <v>12924797.24048083</v>
       </c>
       <c r="C6">
-        <v>3322744.853159508</v>
+        <v>5758522.132004925</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4732,13 +5614,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7750633.827378281</v>
+        <v>19225133.80539292</v>
       </c>
       <c r="C7">
-        <v>3200200.292676071</v>
+        <v>7700149.452333113</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4746,13 +5628,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10274862.80891813</v>
+        <v>16475757.66074332</v>
       </c>
       <c r="C8">
-        <v>4126403.75580697</v>
+        <v>6887968.643677483</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4760,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6890724.042432134</v>
+        <v>19336425.05598189</v>
       </c>
       <c r="C9">
-        <v>2967143.576942903</v>
+        <v>8493497.010675434</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4774,13 +5656,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8616596.373528099</v>
+        <v>21414666.23773126</v>
       </c>
       <c r="C10">
-        <v>3434776.57437409</v>
+        <v>8834820.42282204</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4788,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9609580.156000549</v>
+        <v>23206116.2329681</v>
       </c>
       <c r="C11">
-        <v>3861197.436309038</v>
+        <v>9625600.737964334</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4802,13 +5684,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10581292.99162799</v>
+        <v>22995217.99804173</v>
       </c>
       <c r="C12">
-        <v>4225323.977413478</v>
+        <v>9453300.167283118</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4816,13 +5698,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8681223.565544015</v>
+        <v>23017126.97186959</v>
       </c>
       <c r="C13">
-        <v>3520701.170883086</v>
+        <v>9438189.453767782</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4830,13 +5712,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10067464.50269102</v>
+        <v>23513146.18192099</v>
       </c>
       <c r="C14">
-        <v>4140017.76304966</v>
+        <v>9734926.535043443</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4844,13 +5726,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14019881.44397149</v>
+        <v>25141778.46431184</v>
       </c>
       <c r="C15">
-        <v>5816671.32905724</v>
+        <v>10780126.94069257</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4858,13 +5740,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9807470.379622871</v>
+        <v>22493120.8324344</v>
       </c>
       <c r="C16">
-        <v>4187643.365851526</v>
+        <v>9637924.766936392</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4872,13 +5754,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10376066.70326515</v>
+        <v>22358993.14272116</v>
       </c>
       <c r="C17">
-        <v>4465535.721520863</v>
+        <v>9753600.754659358</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4886,13 +5768,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12863016.19166876</v>
+        <v>23381444.97609608</v>
       </c>
       <c r="C18">
-        <v>5694338.274045692</v>
+        <v>10266091.17155286</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4900,13 +5782,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>21547720.58788546</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>9692304.781342262</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4914,13 +5796,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8460035.141692359</v>
+        <v>19174688.13284557</v>
       </c>
       <c r="C20">
-        <v>3979991.028109302</v>
+        <v>8616134.484786032</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4928,13 +5810,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10646352.13752718</v>
+        <v>19078864.47261808</v>
       </c>
       <c r="C21">
-        <v>4764554.397193043</v>
+        <v>8543820.590451391</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4942,13 +5824,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8197632.093497454</v>
+        <v>14031208.63255681</v>
       </c>
       <c r="C22">
-        <v>4041030.232192558</v>
+        <v>6481746.570330917</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4956,13 +5838,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4785861.795383655</v>
+        <v>15501528.5129925</v>
       </c>
       <c r="C23">
-        <v>2363147.919556375</v>
+        <v>7390200.859532884</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4970,13 +5852,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7458446.098067929</v>
+        <v>13584689.54295769</v>
       </c>
       <c r="C24">
-        <v>3539969.742382068</v>
+        <v>6411659.298802355</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4984,13 +5866,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>9910793.780381329</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4601343.529653684</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4998,13 +5880,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8096152.218144676</v>
+        <v>8371148.491742005</v>
       </c>
       <c r="C26">
-        <v>3514566.613972417</v>
+        <v>3785850.060428872</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5012,13 +5894,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6218072.655720852</v>
+        <v>7802852.523357476</v>
       </c>
       <c r="C27">
-        <v>2747260.740509195</v>
+        <v>3469880.186611276</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5102,6 +5984,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6172960.203545094</v>
+      </c>
+      <c r="C36">
+        <v>2521961.270613949</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -5112,7 +6092,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5134,13 +6114,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7474834.99271852</v>
+        <v>12256996.27055403</v>
       </c>
       <c r="C2">
-        <v>2977858.695464802</v>
+        <v>4915667.392624041</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5148,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8662125.879650151</v>
+        <v>9212892.458144275</v>
       </c>
       <c r="C3">
-        <v>3450503.286991941</v>
+        <v>4011338.664132803</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5162,13 +6142,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2864030.27793689</v>
+        <v>9029766.843215033</v>
       </c>
       <c r="C4">
-        <v>1597645.841105842</v>
+        <v>3872920.037812451</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5176,13 +6156,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4918955.315961258</v>
+        <v>10041918.81054851</v>
       </c>
       <c r="C5">
-        <v>2288396.796638106</v>
+        <v>4466170.019458082</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5190,13 +6170,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3733921.548189648</v>
+        <v>14562597.24226028</v>
       </c>
       <c r="C6">
-        <v>1975406.986985099</v>
+        <v>6193369.824963928</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5204,13 +6184,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5055239.808969095</v>
+        <v>13775422.86779797</v>
       </c>
       <c r="C7">
-        <v>2305370.149670609</v>
+        <v>5892281.873005627</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5218,13 +6198,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4734473.433171254</v>
+        <v>17104658.04091147</v>
       </c>
       <c r="C8">
-        <v>2031538.390188704</v>
+        <v>6900325.434257307</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5232,13 +6212,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10715034.10103717</v>
+        <v>20159110.98496745</v>
       </c>
       <c r="C9">
-        <v>4480861.44154082</v>
+        <v>8335221.556076813</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5246,13 +6226,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15682224.46910414</v>
+        <v>19907032.59480014</v>
       </c>
       <c r="C10">
-        <v>6095395.583857085</v>
+        <v>7851704.75537397</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5260,13 +6240,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13208112.6428301</v>
+        <v>19857698.38275447</v>
       </c>
       <c r="C11">
-        <v>5392578.111064824</v>
+        <v>8054873.120665693</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5274,13 +6254,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12668503.12811039</v>
+        <v>22843013.43673119</v>
       </c>
       <c r="C12">
-        <v>4970294.944792322</v>
+        <v>9647782.904604947</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5288,13 +6268,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8177684.825720438</v>
+        <v>21516079.89445311</v>
       </c>
       <c r="C13">
-        <v>3305670.271004591</v>
+        <v>8842589.357981443</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5302,13 +6282,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9432951.400843887</v>
+        <v>20806650.73454617</v>
       </c>
       <c r="C14">
-        <v>4188525.418384207</v>
+        <v>8816030.770187566</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5316,13 +6296,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14368916.31521019</v>
+        <v>22212099.20857726</v>
       </c>
       <c r="C15">
-        <v>6375440.020082733</v>
+        <v>9629355.564760195</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5330,13 +6310,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9108288.371511698</v>
+        <v>22382311.75079102</v>
       </c>
       <c r="C16">
-        <v>4012782.30851468</v>
+        <v>9903607.942353847</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5344,13 +6324,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15270215.49115016</v>
+        <v>23824450.20041674</v>
       </c>
       <c r="C17">
-        <v>6615781.17975414</v>
+        <v>10258837.68153739</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5358,13 +6338,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7908834.317670903</v>
+        <v>17823319.04494495</v>
       </c>
       <c r="C18">
-        <v>3525276.373705393</v>
+        <v>7780279.395284536</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5372,13 +6352,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5420502.02065234</v>
+        <v>20385058.65191343</v>
       </c>
       <c r="C19">
-        <v>2481929.444120121</v>
+        <v>9209436.64683512</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5386,13 +6366,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>20015201.62374368</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8775125.818439601</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5400,13 +6380,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8755319.60187785</v>
+        <v>18275291.75178519</v>
       </c>
       <c r="C21">
-        <v>3617668.276517792</v>
+        <v>8186169.221669318</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5414,13 +6394,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3554554.641968988</v>
+        <v>13769338.90543944</v>
       </c>
       <c r="C22">
-        <v>1735734.446335264</v>
+        <v>6079842.991756356</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5428,13 +6408,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9525950.91730242</v>
+        <v>15675914.25360121</v>
       </c>
       <c r="C23">
-        <v>4066275.107565723</v>
+        <v>7097159.800675399</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5442,13 +6422,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4851559.541270683</v>
+        <v>15424352.34420587</v>
       </c>
       <c r="C24">
-        <v>2196494.637489616</v>
+        <v>7148922.78382441</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5456,13 +6436,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>14554743.25718997</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6751929.883910132</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5470,13 +6450,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5535692.068440928</v>
+        <v>13664997.72810143</v>
       </c>
       <c r="C26">
-        <v>2314575.386097233</v>
+        <v>6150717.374532493</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5484,13 +6464,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8352468.553526722</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3825444.609856572</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5498,13 +6478,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>11692253.12250813</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5243508.2694245</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5512,13 +6492,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>11878404.65590455</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5548555.987199174</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5526,13 +6506,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>7528523.693680759</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3352293.18163146</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5554,13 +6534,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10162565.31877798</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4690381.071361176</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5574,6 +6554,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -5584,7 +6662,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5606,13 +6684,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>751702.478602397</v>
+        <v>4832735.796568115</v>
       </c>
       <c r="C2">
-        <v>733679.4717304513</v>
+        <v>2305976.783921883</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5620,13 +6698,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10054344.09149454</v>
+        <v>10870630.37908374</v>
       </c>
       <c r="C3">
-        <v>4031782.491619062</v>
+        <v>4511189.934488719</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5634,13 +6712,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1247924.7482602</v>
+        <v>9455154.987427291</v>
       </c>
       <c r="C4">
-        <v>935532.8249883943</v>
+        <v>4119165.119400293</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5648,13 +6726,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9860227.979915923</v>
+        <v>12643945.24637221</v>
       </c>
       <c r="C5">
-        <v>4034342.361934221</v>
+        <v>5505179.203700204</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5662,13 +6740,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7840169.092436418</v>
+        <v>13303027.51236174</v>
       </c>
       <c r="C6">
-        <v>3121946.481262627</v>
+        <v>5846644.996484843</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5676,13 +6754,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11389326.12307158</v>
+        <v>16351199.40091251</v>
       </c>
       <c r="C7">
-        <v>4620622.432675692</v>
+        <v>6541046.04244912</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5690,13 +6768,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7661065.065033746</v>
+        <v>19542166.72818038</v>
       </c>
       <c r="C8">
-        <v>3186970.169947146</v>
+        <v>7844948.404445283</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5704,13 +6782,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10042358.08785947</v>
+        <v>23764384.44912503</v>
       </c>
       <c r="C9">
-        <v>3960023.963249732</v>
+        <v>10446036.94665852</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5718,13 +6796,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15144099.45642084</v>
+        <v>22458906.85022582</v>
       </c>
       <c r="C10">
-        <v>6031644.376032692</v>
+        <v>8976432.00628116</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5732,13 +6810,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13176521.68209961</v>
+        <v>25497257.66092414</v>
       </c>
       <c r="C11">
-        <v>5325481.507765369</v>
+        <v>10506592.09478312</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5746,13 +6824,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11627165.41711267</v>
+        <v>26646832.71355218</v>
       </c>
       <c r="C12">
-        <v>4757106.113569965</v>
+        <v>11155590.68915875</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5760,13 +6838,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12593125.64583099</v>
+        <v>27787863.39311703</v>
       </c>
       <c r="C13">
-        <v>5234832.513222281</v>
+        <v>12422967.39357043</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5774,13 +6852,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9928235.792046102</v>
+        <v>24631817.0453243</v>
       </c>
       <c r="C14">
-        <v>4380171.043753259</v>
+        <v>10830158.45349649</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5788,13 +6866,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10358244.0763106</v>
+        <v>26192172.55930407</v>
       </c>
       <c r="C15">
-        <v>4635736.049462727</v>
+        <v>11479186.99526753</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5802,13 +6880,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10668765.16302009</v>
+        <v>25906882.19238286</v>
       </c>
       <c r="C16">
-        <v>5253704.594321669</v>
+        <v>11931983.99997495</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5816,13 +6894,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9700323.312187133</v>
+        <v>21498373.06879088</v>
       </c>
       <c r="C17">
-        <v>4749640.927614531</v>
+        <v>10068578.4985861</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5830,13 +6908,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8849417.014941631</v>
+        <v>22277822.76052984</v>
       </c>
       <c r="C18">
-        <v>3766687.189122837</v>
+        <v>10932669.31114502</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5844,13 +6922,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13114070.42618735</v>
+        <v>22130648.39824557</v>
       </c>
       <c r="C19">
-        <v>6163668.830524869</v>
+        <v>10372221.92389477</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5858,13 +6936,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14020248.79558555</v>
+        <v>24446548.84467849</v>
       </c>
       <c r="C20">
-        <v>5907576.990874914</v>
+        <v>11505219.58389705</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5872,13 +6950,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11527324.46570373</v>
+        <v>23576929.48801364</v>
       </c>
       <c r="C21">
-        <v>5647510.583503459</v>
+        <v>11278220.80177903</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5886,13 +6964,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7520974.825303383</v>
+        <v>20218522.88025352</v>
       </c>
       <c r="C22">
-        <v>4115608.314383792</v>
+        <v>9610026.535472305</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5900,13 +6978,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8148237.913641986</v>
+        <v>19058302.62861311</v>
       </c>
       <c r="C23">
-        <v>3559208.05239611</v>
+        <v>9479297.22806059</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5914,13 +6992,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7984048.847936842</v>
+        <v>19456823.66773795</v>
       </c>
       <c r="C24">
-        <v>4043488.54033339</v>
+        <v>9339117.70942281</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5928,13 +7006,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3037600.978832599</v>
+        <v>17038855.85807226</v>
       </c>
       <c r="C25">
-        <v>1892357.872529937</v>
+        <v>8487125.8491835</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5942,13 +7020,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4817396.713409428</v>
+        <v>15968269.60172797</v>
       </c>
       <c r="C26">
-        <v>2897883.77257952</v>
+        <v>8337389.778572472</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5956,13 +7034,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4777540.080904632</v>
+        <v>13373578.6711411</v>
       </c>
       <c r="C27">
-        <v>2429502.642902273</v>
+        <v>6675408.908880524</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5970,13 +7048,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9902781.22419917</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5207481.026095717</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5984,13 +7062,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>11218017.58134817</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5906831.711441278</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5998,13 +7076,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>8595694.798177373</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4845156.711935999</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6012,13 +7090,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>9512479.834945636</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4750686.190151734</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6026,13 +7104,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>7114051.73575462</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3631439.331272403</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6040,13 +7118,111 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2249666.01316085</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1401201.52427852</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7203561.212363213</v>
+      </c>
+      <c r="C34">
+        <v>4195551.441391083</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9110396.31748534</v>
+      </c>
+      <c r="C35">
+        <v>4801726.490533549</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5927688.618900192</v>
+      </c>
+      <c r="C36">
+        <v>3030418.025282283</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6469914.014954458</v>
+      </c>
+      <c r="C37">
+        <v>3093225.070350282</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5380309.572435632</v>
+      </c>
+      <c r="C38">
+        <v>3001584.393620497</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6280266.521827239</v>
+      </c>
+      <c r="C40">
+        <v>2912994.254133536</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6056,7 +7232,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6078,13 +7254,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4490350.027543491</v>
+        <v>13140782.8575687</v>
       </c>
       <c r="C2">
-        <v>1880075.908952998</v>
+        <v>5797840.248481751</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6092,13 +7268,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7005864.835924917</v>
+        <v>13689049.60794726</v>
       </c>
       <c r="C3">
-        <v>2802722.277784629</v>
+        <v>5877254.547317413</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6106,13 +7282,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14028307.83135243</v>
+        <v>17124226.29189214</v>
       </c>
       <c r="C4">
-        <v>6379497.041720274</v>
+        <v>7510841.105980443</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6120,13 +7296,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9073756.62713428</v>
+        <v>18897271.71213957</v>
       </c>
       <c r="C5">
-        <v>3643367.988937052</v>
+        <v>7914228.948165155</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6134,13 +7310,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14697756.07679853</v>
+        <v>23476921.20197205</v>
       </c>
       <c r="C6">
-        <v>6471518.324413001</v>
+        <v>9882519.813442869</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6148,13 +7324,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16640698.29691482</v>
+        <v>28491830.48215104</v>
       </c>
       <c r="C7">
-        <v>7731686.875669429</v>
+        <v>12737137.31328017</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6162,13 +7338,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14122792.66995716</v>
+        <v>27767981.40175168</v>
       </c>
       <c r="C8">
-        <v>5878949.493351868</v>
+        <v>11781324.52050388</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6176,13 +7352,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22171116.64385774</v>
+        <v>34803670.69235118</v>
       </c>
       <c r="C9">
-        <v>8865751.70594061</v>
+        <v>14896218.20476641</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6190,13 +7366,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20207339.68466388</v>
+        <v>36951751.37454103</v>
       </c>
       <c r="C10">
-        <v>9471065.254252926</v>
+        <v>16002184.38857495</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6204,13 +7380,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>19573323.13382813</v>
+        <v>39334617.66710912</v>
       </c>
       <c r="C11">
-        <v>8778685.077803886</v>
+        <v>17317540.77959292</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6218,13 +7394,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19925527.21982851</v>
+        <v>40372710.0302401</v>
       </c>
       <c r="C12">
-        <v>8685932.854725285</v>
+        <v>17905284.53478025</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6232,13 +7408,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21487882.6844951</v>
+        <v>43186617.77198724</v>
       </c>
       <c r="C13">
-        <v>9820121.592412783</v>
+        <v>19742093.35692803</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6246,13 +7422,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>21453697.74373632</v>
+        <v>42125528.15064048</v>
       </c>
       <c r="C14">
-        <v>10164386.86204408</v>
+        <v>19594298.76252884</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6260,13 +7436,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>22301960.62065598</v>
+        <v>40732976.51030444</v>
       </c>
       <c r="C15">
-        <v>10825066.39115412</v>
+        <v>19812264.16943438</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6274,13 +7450,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19122162.07889987</v>
+        <v>39207735.91282068</v>
       </c>
       <c r="C16">
-        <v>9441646.855632557</v>
+        <v>19263570.02572634</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6288,13 +7464,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>13104019.36567832</v>
+        <v>38509526.28092312</v>
       </c>
       <c r="C17">
-        <v>6206984.004629374</v>
+        <v>19385750.31582477</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6302,13 +7478,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15463976.12025744</v>
+        <v>36676478.44918035</v>
       </c>
       <c r="C18">
-        <v>7726987.966618514</v>
+        <v>18513355.70778126</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6316,13 +7492,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15125462.22690571</v>
+        <v>34480094.66556191</v>
       </c>
       <c r="C19">
-        <v>7320223.358713242</v>
+        <v>17501120.92162473</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6330,13 +7506,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14786125.13161708</v>
+        <v>34368355.83293699</v>
       </c>
       <c r="C20">
-        <v>7623917.223490472</v>
+        <v>17562845.8009115</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6344,13 +7520,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15031828.32818543</v>
+        <v>28806590.16579695</v>
       </c>
       <c r="C21">
-        <v>7608022.807129718</v>
+        <v>14933192.77544035</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6358,13 +7534,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10000807.82721481</v>
+        <v>28316752.31974298</v>
       </c>
       <c r="C22">
-        <v>4832099.798618459</v>
+        <v>14672186.86745189</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6372,13 +7548,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12903642.28135775</v>
+        <v>24079030.01675333</v>
       </c>
       <c r="C23">
-        <v>6551915.189959258</v>
+        <v>12637163.24678576</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6386,13 +7562,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>13329834.23620255</v>
+        <v>26234059.26756117</v>
       </c>
       <c r="C24">
-        <v>6543123.705540436</v>
+        <v>14027127.94049922</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6400,13 +7576,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5138800.481408024</v>
+        <v>20947287.17429466</v>
       </c>
       <c r="C25">
-        <v>3157909.250698769</v>
+        <v>11385842.94938051</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6414,13 +7590,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11197429.98192683</v>
+        <v>20710117.04299767</v>
       </c>
       <c r="C26">
-        <v>6502610.654234385</v>
+        <v>11135938.8633158</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6428,13 +7604,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15015513.03891897</v>
+        <v>20584190.02637834</v>
       </c>
       <c r="C27">
-        <v>7336686.655755638</v>
+        <v>10807274.07281069</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6442,13 +7618,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4938718.550814139</v>
+        <v>19773322.99797796</v>
       </c>
       <c r="C28">
-        <v>2336825.022704306</v>
+        <v>10468633.91374557</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6456,13 +7632,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>9132267.636169385</v>
+        <v>18217810.15188676</v>
       </c>
       <c r="C29">
-        <v>4969670.75496646</v>
+        <v>10503598.7384455</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6470,13 +7646,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>15769379.34419081</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>8771832.061645169</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6484,13 +7660,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>8291687.970380199</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4412822.087356186</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6498,13 +7674,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10938997.53752868</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5993670.315009922</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6512,12 +7688,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>8309093.468433418</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5135852.448624277</v>
       </c>
       <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>14469098.51819741</v>
+      </c>
+      <c r="C34">
+        <v>8011161.056050018</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6078355.449467774</v>
+      </c>
+      <c r="C35">
+        <v>3711966.441114306</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7553539.332010562</v>
+      </c>
+      <c r="C37">
+        <v>4890501.543353892</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4026089.263448813</v>
+      </c>
+      <c r="C38">
+        <v>2544298.504215539</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
